--- a/ONCHO/Entomological survey Survey/Nigeria/2023/july/ng_oncho_stop_2_participant_202307_kano.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/july/ng_oncho_stop_2_participant_202307_kano.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\june\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\july\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CF47DC-F63B-4593-AE78-0835EEC2EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA2E46E-814A-4894-A118-3000163BDA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -276,9 +276,6 @@
     <t>community_id</t>
   </si>
   <si>
-    <t>ng_oncho_stop_9_participant_202206_bauchy</t>
-  </si>
-  <si>
     <t>BAUCHI</t>
   </si>
   <si>
@@ -432,7 +429,10 @@
     <t>TIKIRZE</t>
   </si>
   <si>
-    <t>(2023 July) - 9. (Bauchi) Participant Form</t>
+    <t>ng_oncho_stop_2_participant_202307_kano</t>
+  </si>
+  <si>
+    <t>(2023 July) - 2. (Kano) Participant Form</t>
   </si>
 </sst>
 </file>
@@ -859,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1379,10 +1379,10 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1390,13 +1390,13 @@
         <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1404,13 +1404,13 @@
         <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1418,13 +1418,13 @@
         <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1432,13 +1432,13 @@
         <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1446,13 +1446,13 @@
         <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1460,13 +1460,13 @@
         <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1474,13 +1474,13 @@
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1488,13 +1488,13 @@
         <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1502,13 +1502,13 @@
         <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1516,13 +1516,13 @@
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1530,13 +1530,13 @@
         <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1544,13 +1544,13 @@
         <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1558,13 +1558,13 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1572,13 +1572,13 @@
         <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1586,13 +1586,13 @@
         <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1600,13 +1600,13 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1614,13 +1614,13 @@
         <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1628,13 +1628,13 @@
         <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1642,13 +1642,13 @@
         <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1656,13 +1656,13 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1670,13 +1670,13 @@
         <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1684,13 +1684,13 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1698,13 +1698,13 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1712,13 +1712,13 @@
         <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1726,13 +1726,13 @@
         <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1740,13 +1740,13 @@
         <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1754,13 +1754,13 @@
         <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1768,13 +1768,13 @@
         <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1782,13 +1782,13 @@
         <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1796,13 +1796,13 @@
         <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1810,13 +1810,13 @@
         <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1824,13 +1824,13 @@
         <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1838,13 +1838,13 @@
         <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1852,13 +1852,13 @@
         <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1866,13 +1866,13 @@
         <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1880,13 +1880,13 @@
         <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1894,13 +1894,13 @@
         <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1908,13 +1908,13 @@
         <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1922,13 +1922,13 @@
         <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1936,13 +1936,13 @@
         <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1950,13 +1950,13 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1964,13 +1964,13 @@
         <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1978,13 +1978,13 @@
         <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1992,13 +1992,13 @@
         <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2006,13 +2006,13 @@
         <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2020,13 +2020,13 @@
         <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2034,13 +2034,13 @@
         <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2048,13 +2048,13 @@
         <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2062,13 +2062,13 @@
         <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2076,13 +2076,13 @@
         <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2090,13 +2090,13 @@
         <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2104,13 +2104,13 @@
         <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2124,7 +2124,7 @@
         <v>201</v>
       </c>
       <c r="F65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2138,7 +2138,7 @@
         <v>202</v>
       </c>
       <c r="F66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2152,7 +2152,7 @@
         <v>203</v>
       </c>
       <c r="F67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>204</v>
       </c>
       <c r="F68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2180,7 +2180,7 @@
         <v>205</v>
       </c>
       <c r="F69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>206</v>
       </c>
       <c r="F70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2208,7 +2208,7 @@
         <v>207</v>
       </c>
       <c r="F71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2222,7 +2222,7 @@
         <v>208</v>
       </c>
       <c r="F72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2236,7 +2236,7 @@
         <v>209</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2250,7 +2250,7 @@
         <v>210</v>
       </c>
       <c r="F74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2264,7 +2264,7 @@
         <v>211</v>
       </c>
       <c r="F75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2278,7 +2278,7 @@
         <v>212</v>
       </c>
       <c r="F76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2292,7 +2292,7 @@
         <v>213</v>
       </c>
       <c r="F77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>214</v>
       </c>
       <c r="F78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2320,7 +2320,7 @@
         <v>215</v>
       </c>
       <c r="F79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>216</v>
       </c>
       <c r="F80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2348,7 +2348,7 @@
         <v>217</v>
       </c>
       <c r="F81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2362,7 +2362,7 @@
         <v>218</v>
       </c>
       <c r="F82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2376,7 +2376,7 @@
         <v>219</v>
       </c>
       <c r="F83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2390,7 +2390,7 @@
         <v>220</v>
       </c>
       <c r="F84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2404,7 +2404,7 @@
         <v>221</v>
       </c>
       <c r="F85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2418,7 +2418,7 @@
         <v>222</v>
       </c>
       <c r="F86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2432,7 +2432,7 @@
         <v>223</v>
       </c>
       <c r="F87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>224</v>
       </c>
       <c r="F88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2460,7 +2460,7 @@
         <v>225</v>
       </c>
       <c r="F89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>226</v>
       </c>
       <c r="F90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2488,7 +2488,7 @@
         <v>227</v>
       </c>
       <c r="F91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2502,7 +2502,7 @@
         <v>228</v>
       </c>
       <c r="F92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2516,7 +2516,7 @@
         <v>229</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2530,7 +2530,7 @@
         <v>230</v>
       </c>
       <c r="F94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2544,7 +2544,7 @@
         <v>231</v>
       </c>
       <c r="F95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2558,7 +2558,7 @@
         <v>232</v>
       </c>
       <c r="F96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2572,7 +2572,7 @@
         <v>233</v>
       </c>
       <c r="F97" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>234</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2600,7 +2600,7 @@
         <v>235</v>
       </c>
       <c r="F99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>236</v>
       </c>
       <c r="F100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2629,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2655,7 +2655,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
